--- a/StructureDefinition-profile-Account.xlsx
+++ b/StructureDefinition-profile-Account.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="298">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.607575-06:00</t>
+    <t>2026-02-09T22:05:42.9587645-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -414,38 +414,184 @@
     <t>Account.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Account.extension:billingStatus</t>
+  </si>
+  <si>
+    <t>billingStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.billingStatus|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Account.billingStatus from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The BillingStatus tracks the lifecycle of the account through the billing process. It indicates how transactions are treated when they are allocated to the account.</t>
+  </si>
+  <si>
+    <t>Element `Account.billingStatus` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Account.extension:diagnosis</t>
+  </si>
+  <si>
+    <t>diagnosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.diagnosis|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Account.diagnosis from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>When using an account for billing a specific Encounter the set of diagnoses that are relevant for billing are stored here on the account where they are able to be sequenced appropriately prior to processing to produce claim(s).</t>
+  </si>
+  <si>
+    <t>Element `Account.diagnosis` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+  </si>
+  <si>
+    <t>Account.extension:procedure</t>
+  </si>
+  <si>
+    <t>procedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.procedure|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Account.procedure from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>When using an account for billing a specific Encounter the set of procedures that are relevant for billing are stored here on the account where they are able to be sequenced appropriately prior to processing to produce claim(s).</t>
+  </si>
+  <si>
+    <t>Element `Account.procedure` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+  </si>
+  <si>
+    <t>Account.extension:currency</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.currency|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Account.currency from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The default currency for the account.</t>
+  </si>
+  <si>
+    <t>Element `Account.currency` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+  </si>
+  <si>
+    <t>Account.extension:balance</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.balance|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Account.balance from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The calculated account balances - these are calculated and processed by the finance system.++The balances with a `term` that is not current are usually generated/updated by an invoicing or similar process.</t>
+  </si>
+  <si>
+    <t>Element `Account.balance` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+  </si>
+  <si>
+    <t>Account.extension:calculatedAt</t>
+  </si>
+  <si>
+    <t>calculatedAt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.calculatedAt|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Account.calculatedAt from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Time the balance amount was calculated.</t>
+  </si>
+  <si>
+    <t>Element `Account.calculatedAt` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+  </si>
+  <si>
+    <t>Account.extension:relationship</t>
+  </si>
+  <si>
+    <t>relationship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.relatedAccount.relationship|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Account.relatedAccount.relationship from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Relationship of the associated Account.</t>
+  </si>
+  <si>
+    <t>Element `Account.relatedAccount.relationship` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+  </si>
+  <si>
+    <t>Account.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Account.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -636,6 +782,9 @@
   </si>
   <si>
     <t>Account.coverage.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -1111,7 +1260,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL32"/>
+  <dimension ref="A1:AL39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1122,7 +1271,7 @@
   <cols>
     <col min="1" max="1" width="31.109375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="31.109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="10.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2036,7 +2185,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2055,17 +2204,15 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>133</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>78</v>
@@ -2102,16 +2249,14 @@
         <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>134</v>
@@ -2129,7 +2274,7 @@
         <v>135</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>78</v>
@@ -2140,43 +2285,43 @@
         <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>78</v>
       </c>
@@ -2224,7 +2369,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2233,13 +2378,13 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>78</v>
@@ -2247,12 +2392,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>78</v>
       </c>
@@ -2270,18 +2417,20 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>78</v>
@@ -2330,7 +2479,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -2339,56 +2488,58 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>146</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2414,13 +2565,13 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>78</v>
@@ -2438,35 +2589,37 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>155</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="C13" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>78</v>
       </c>
@@ -2484,7 +2637,7 @@
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>157</v>
@@ -2495,7 +2648,9 @@
       <c r="M13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="N13" s="2"/>
+      <c r="N13" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>78</v>
@@ -2520,13 +2675,13 @@
         <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>78</v>
@@ -2544,44 +2699,46 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>164</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="D14" t="s" s="2">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>78</v>
@@ -2590,18 +2747,20 @@
         <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>78</v>
@@ -2650,44 +2809,46 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>171</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="D15" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>78</v>
@@ -2696,19 +2857,19 @@
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2758,7 +2919,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -2767,26 +2928,28 @@
         <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>179</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="D16" t="s" s="2">
         <v>78</v>
       </c>
@@ -2804,19 +2967,19 @@
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -2866,37 +3029,37 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -2909,24 +3072,26 @@
         <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>188</v>
+        <v>129</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>78</v>
       </c>
@@ -2974,7 +3139,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -2986,10 +3151,10 @@
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>78</v>
@@ -2997,10 +3162,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3011,7 +3176,7 @@
         <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
@@ -3020,16 +3185,16 @@
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3080,65 +3245,65 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>78</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3164,13 +3329,13 @@
         <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>78</v>
@@ -3188,25 +3353,25 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="20">
@@ -3218,26 +3383,26 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>203</v>
@@ -3245,12 +3410,8 @@
       <c r="M20" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="N20" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>139</v>
-      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>78</v>
       </c>
@@ -3274,13 +3435,13 @@
         <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>78</v>
@@ -3298,41 +3459,41 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>127</v>
+        <v>208</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>78</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>84</v>
@@ -3347,13 +3508,13 @@
         <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3404,10 +3565,10 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>84</v>
@@ -3419,29 +3580,29 @@
         <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>78</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>78</v>
@@ -3453,16 +3614,16 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3512,13 +3673,13 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>78</v>
@@ -3527,18 +3688,18 @@
         <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>78</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3561,15 +3722,17 @@
         <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -3618,7 +3781,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -3633,18 +3796,18 @@
         <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>78</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3655,7 +3818,7 @@
         <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -3667,15 +3830,17 @@
         <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -3724,13 +3889,13 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
@@ -3739,7 +3904,7 @@
         <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>78</v>
@@ -3747,10 +3912,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3761,7 +3926,7 @@
         <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
@@ -3773,13 +3938,13 @@
         <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3830,22 +3995,22 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>78</v>
@@ -3853,21 +4018,21 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
@@ -3879,15 +4044,17 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -3936,22 +4103,22 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>197</v>
+        <v>242</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>78</v>
@@ -3959,14 +4126,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>129</v>
+        <v>248</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -3979,24 +4146,26 @@
         <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>131</v>
+        <v>249</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>78</v>
       </c>
@@ -4044,7 +4213,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4059,7 +4228,7 @@
         <v>135</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>197</v>
+        <v>127</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>78</v>
@@ -4067,46 +4236,42 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>203</v>
+        <v>254</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
       </c>
@@ -4154,22 +4319,22 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>205</v>
+        <v>252</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>127</v>
+        <v>256</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>78</v>
@@ -4177,18 +4342,18 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>84</v>
@@ -4200,18 +4365,20 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -4260,10 +4427,10 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>84</v>
@@ -4275,7 +4442,7 @@
         <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>78</v>
@@ -4283,10 +4450,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4306,16 +4473,16 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4366,7 +4533,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -4381,7 +4548,7 @@
         <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>78</v>
@@ -4389,10 +4556,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4412,16 +4579,16 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4472,7 +4639,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -4487,7 +4654,7 @@
         <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>78</v>
@@ -4495,10 +4662,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4509,7 +4676,7 @@
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -4521,13 +4688,13 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4578,13 +4745,13 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>78</v>
@@ -4593,9 +4760,757 @@
         <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>78</v>
+        <v>276</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="P35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Account.xlsx
+++ b/StructureDefinition-profile-Account.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="306">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:42.9587645-06:00</t>
+    <t>2026-02-17T14:42:26.7165196-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -454,7 +454,7 @@
     <t>The BillingStatus tracks the lifecycle of the account through the billing process. It indicates how transactions are treated when they are allocated to the account.</t>
   </si>
   <si>
-    <t>Element `Account.billingStatus` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+    <t>Element `Account.billingStatus` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -477,7 +477,7 @@
     <t>When using an account for billing a specific Encounter the set of diagnoses that are relevant for billing are stored here on the account where they are able to be sequenced appropriately prior to processing to produce claim(s).</t>
   </si>
   <si>
-    <t>Element `Account.diagnosis` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+    <t>Element `Account.diagnosis` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Account.extension:procedure</t>
@@ -496,7 +496,26 @@
     <t>When using an account for billing a specific Encounter the set of procedures that are relevant for billing are stored here on the account where they are able to be sequenced appropriately prior to processing to produce claim(s).</t>
   </si>
   <si>
-    <t>Element `Account.procedure` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+    <t>Element `Account.procedure` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+  </si>
+  <si>
+    <t>Account.extension:relatedAccount</t>
+  </si>
+  <si>
+    <t>relatedAccount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.relatedAccount|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Account.relatedAccount from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Other associated accounts related to this account.</t>
+  </si>
+  <si>
+    <t>Element `Account.relatedAccount` has is mapped to FHIR R4 element `Account`, but has no comparisons.</t>
   </si>
   <si>
     <t>Account.extension:currency</t>
@@ -515,7 +534,7 @@
     <t>The default currency for the account.</t>
   </si>
   <si>
-    <t>Element `Account.currency` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+    <t>Element `Account.currency` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Account.extension:balance</t>
@@ -536,7 +555,7 @@
 The balances with a `term` that is not current are usually generated/updated by an invoicing or similar process.</t>
   </si>
   <si>
-    <t>Element `Account.balance` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+    <t>Element `Account.balance` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Account.extension:calculatedAt</t>
@@ -555,26 +574,7 @@
     <t>Time the balance amount was calculated.</t>
   </si>
   <si>
-    <t>Element `Account.calculatedAt` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
-  </si>
-  <si>
-    <t>Account.extension:relationship</t>
-  </si>
-  <si>
-    <t>relationship</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.relatedAccount.relationship|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Account.relatedAccount.relationship from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Relationship of the associated Account.</t>
-  </si>
-  <si>
-    <t>Element `Account.relatedAccount.relationship` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+    <t>Element `Account.calculatedAt` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Account.modifierExtension</t>
@@ -784,13 +784,23 @@
     <t>Account.coverage.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Account.coverage.extension:coverage</t>
+  </si>
+  <si>
+    <t>coverage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.coverage|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Account.coverage from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Account.coverage` has is mapped to FHIR R4 element `Account.coverage`, but has no comparisons.</t>
   </si>
   <si>
     <t>Account.coverage.modifierExtension</t>
@@ -894,6 +904,22 @@
   </si>
   <si>
     <t>Account.guarantor.extension</t>
+  </si>
+  <si>
+    <t>Account.guarantor.extension:guarantor</t>
+  </si>
+  <si>
+    <t>guarantor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.guarantor|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Account.guarantor from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Account.guarantor` has is mapped to FHIR R4 element `Account.guarantor`, but has no comparisons.</t>
   </si>
   <si>
     <t>Account.guarantor.modifierExtension</t>
@@ -1260,7 +1286,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL39"/>
+  <dimension ref="A1:AL41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1269,9 +1295,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="31.109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="32.79296875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="31.109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="13.26171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2628,7 +2654,7 @@
         <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
@@ -2738,7 +2764,7 @@
         <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>78</v>
@@ -2848,7 +2874,7 @@
         <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>78</v>
@@ -4025,7 +4051,7 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4047,14 +4073,12 @@
         <v>129</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>244</v>
+        <v>130</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -4091,19 +4115,17 @@
         <v>78</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC26" s="2"/>
       <c r="AD26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4118,7 +4140,7 @@
         <v>135</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>78</v>
@@ -4126,14 +4148,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="D27" t="s" s="2">
-        <v>248</v>
+        <v>78</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4146,26 +4170,24 @@
         <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>129</v>
+        <v>247</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>184</v>
-      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>78</v>
       </c>
@@ -4213,7 +4235,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4222,13 +4244,13 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>78</v>
@@ -4236,42 +4258,46 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="N28" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>78</v>
       </c>
@@ -4319,22 +4345,22 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>256</v>
+        <v>127</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>78</v>
@@ -4342,18 +4368,18 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>258</v>
+        <v>78</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>84</v>
@@ -4368,17 +4394,15 @@
         <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -4427,10 +4451,10 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>84</v>
@@ -4442,7 +4466,7 @@
         <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>78</v>
@@ -4450,14 +4474,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>78</v>
+        <v>261</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4476,15 +4500,17 @@
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -4533,7 +4559,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -4548,7 +4574,7 @@
         <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>78</v>
@@ -4556,10 +4582,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4582,13 +4608,13 @@
         <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>212</v>
+        <v>268</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4639,7 +4665,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -4654,7 +4680,7 @@
         <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>78</v>
@@ -4662,10 +4688,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4676,7 +4702,7 @@
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -4685,16 +4711,16 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4745,13 +4771,13 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>78</v>
@@ -4760,7 +4786,7 @@
         <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>78</v>
@@ -4768,10 +4794,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4782,7 +4808,7 @@
         <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -4794,13 +4820,13 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4851,22 +4877,22 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>78</v>
@@ -4874,21 +4900,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
@@ -4900,17 +4926,15 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>129</v>
+        <v>212</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -4959,19 +4983,19 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>242</v>
@@ -4982,14 +5006,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>248</v>
+        <v>78</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5002,26 +5026,22 @@
         <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>129</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>249</v>
+        <v>130</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>78</v>
       </c>
@@ -5057,19 +5077,17 @@
         <v>78</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC35" s="2"/>
       <c r="AD35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5084,7 +5102,7 @@
         <v>135</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>78</v>
@@ -5092,21 +5110,23 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="D36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -5118,15 +5138,17 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -5175,22 +5197,22 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>284</v>
+        <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>78</v>
@@ -5198,42 +5220,46 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>286</v>
+        <v>129</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
       </c>
@@ -5281,22 +5307,22 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>289</v>
+        <v>127</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>78</v>
@@ -5304,10 +5330,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5315,7 +5341,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>84</v>
@@ -5330,13 +5356,13 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>226</v>
+        <v>289</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5387,10 +5413,10 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>84</v>
@@ -5402,7 +5428,7 @@
         <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>78</v>
@@ -5410,10 +5436,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5436,13 +5462,13 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5493,7 +5519,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -5508,9 +5534,221 @@
         <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>78</v>
+        <v>297</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Account.xlsx
+++ b/StructureDefinition-profile-Account.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.7165196-06:00</t>
+    <t>2026-02-20T11:59:20.7127735-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Account|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Account</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -444,7 +444,7 @@
     <t>billingStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.billingStatus|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.billingStatus}
 </t>
   </si>
   <si>
@@ -467,7 +467,7 @@
     <t>diagnosis</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.diagnosis|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.diagnosis}
 </t>
   </si>
   <si>
@@ -486,7 +486,7 @@
     <t>procedure</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.procedure|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.procedure}
 </t>
   </si>
   <si>
@@ -505,7 +505,7 @@
     <t>relatedAccount</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.relatedAccount|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.relatedAccount}
 </t>
   </si>
   <si>
@@ -524,7 +524,7 @@
     <t>currency</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.currency|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.currency}
 </t>
   </si>
   <si>
@@ -543,7 +543,7 @@
     <t>balance</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.balance|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.balance}
 </t>
   </si>
   <si>
@@ -564,7 +564,7 @@
     <t>calculatedAt</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.calculatedAt|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.calculatedAt}
 </t>
   </si>
   <si>
@@ -793,7 +793,7 @@
     <t>coverage</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.coverage|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.coverage}
 </t>
   </si>
   <si>
@@ -912,7 +912,7 @@
     <t>guarantor</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.guarantor|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.guarantor}
 </t>
   </si>
   <si>

--- a/StructureDefinition-profile-Account.xlsx
+++ b/StructureDefinition-profile-Account.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="298">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.7127735-06:00</t>
+    <t>2026-02-21T13:36:54.1136729-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Account</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Account|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -444,7 +444,7 @@
     <t>billingStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.billingStatus}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.billingStatus|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -467,7 +467,7 @@
     <t>diagnosis</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.diagnosis}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.diagnosis|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -486,7 +486,7 @@
     <t>procedure</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.procedure}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.procedure|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -499,23 +499,23 @@
     <t>Element `Account.procedure` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
-    <t>Account.extension:relatedAccount</t>
-  </si>
-  <si>
-    <t>relatedAccount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.relatedAccount}
+    <t>Account.extension:relationship</t>
+  </si>
+  <si>
+    <t>relationship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.relatedAccount.relationship|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Account.relatedAccount from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Other associated accounts related to this account.</t>
-  </si>
-  <si>
-    <t>Element `Account.relatedAccount` has is mapped to FHIR R4 element `Account`, but has no comparisons.</t>
+    <t>Cross-version extension for Account.relatedAccount.relationship from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Relationship of the associated Account.</t>
+  </si>
+  <si>
+    <t>Element `Account.relatedAccount.relationship` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Account.extension:currency</t>
@@ -524,7 +524,7 @@
     <t>currency</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.currency}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.currency|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -543,7 +543,7 @@
     <t>balance</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.balance}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.balance|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -564,7 +564,7 @@
     <t>calculatedAt</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.calculatedAt}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.calculatedAt|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -784,23 +784,13 @@
     <t>Account.coverage.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Account.coverage.extension:coverage</t>
-  </si>
-  <si>
-    <t>coverage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.coverage}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Account.coverage from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Account.coverage` has is mapped to FHIR R4 element `Account.coverage`, but has no comparisons.</t>
   </si>
   <si>
     <t>Account.coverage.modifierExtension</t>
@@ -904,22 +894,6 @@
   </si>
   <si>
     <t>Account.guarantor.extension</t>
-  </si>
-  <si>
-    <t>Account.guarantor.extension:guarantor</t>
-  </si>
-  <si>
-    <t>guarantor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.guarantor}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Account.guarantor from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Account.guarantor` has is mapped to FHIR R4 element `Account.guarantor`, but has no comparisons.</t>
   </si>
   <si>
     <t>Account.guarantor.modifierExtension</t>
@@ -1286,7 +1260,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL41"/>
+  <dimension ref="A1:AL39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1295,9 +1269,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="32.79296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="31.109375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="31.109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.26171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="10.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2654,7 +2628,7 @@
         <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
@@ -4051,7 +4025,7 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4073,12 +4047,14 @@
         <v>129</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>130</v>
+        <v>244</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -4115,17 +4091,19 @@
         <v>78</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AC26" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4140,7 +4118,7 @@
         <v>135</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>78</v>
+        <v>242</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>78</v>
@@ -4148,16 +4126,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4170,24 +4146,26 @@
         <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>247</v>
+        <v>129</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>78</v>
       </c>
@@ -4235,7 +4213,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4244,13 +4222,13 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>78</v>
@@ -4258,46 +4236,42 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>129</v>
+        <v>253</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
       </c>
@@ -4345,22 +4319,22 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>127</v>
+        <v>256</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>78</v>
@@ -4368,18 +4342,18 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>84</v>
@@ -4394,15 +4368,17 @@
         <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -4451,10 +4427,10 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>84</v>
@@ -4466,7 +4442,7 @@
         <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>78</v>
@@ -4474,14 +4450,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>261</v>
+        <v>78</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4500,17 +4476,15 @@
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -4559,7 +4533,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -4574,7 +4548,7 @@
         <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>78</v>
@@ -4582,10 +4556,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4608,13 +4582,13 @@
         <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>268</v>
+        <v>212</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4665,7 +4639,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -4680,7 +4654,7 @@
         <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>78</v>
@@ -4688,10 +4662,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4702,7 +4676,7 @@
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -4711,16 +4685,16 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4771,13 +4745,13 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>78</v>
@@ -4786,7 +4760,7 @@
         <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>78</v>
@@ -4794,10 +4768,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4808,7 +4782,7 @@
         <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -4820,13 +4794,13 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4877,22 +4851,22 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>78</v>
@@ -4900,21 +4874,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
@@ -4926,15 +4900,17 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>212</v>
+        <v>129</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -4983,19 +4959,19 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>242</v>
@@ -5006,14 +4982,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5026,22 +5002,26 @@
         <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>129</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>130</v>
+        <v>249</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
       </c>
@@ -5077,17 +5057,19 @@
         <v>78</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AC35" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5102,7 +5084,7 @@
         <v>135</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>78</v>
@@ -5110,23 +5092,21 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -5138,17 +5118,15 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -5197,22 +5175,22 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>78</v>
+        <v>284</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>78</v>
@@ -5220,46 +5198,42 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>129</v>
+        <v>286</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
       </c>
@@ -5307,22 +5281,22 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>127</v>
+        <v>289</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>78</v>
@@ -5330,10 +5304,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5341,7 +5315,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>84</v>
@@ -5356,13 +5330,13 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>289</v>
+        <v>226</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5413,10 +5387,10 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>84</v>
@@ -5428,7 +5402,7 @@
         <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>78</v>
@@ -5436,10 +5410,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5462,13 +5436,13 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5519,7 +5493,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -5534,221 +5508,9 @@
         <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>297</v>
+        <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL41" t="s" s="2">
         <v>78</v>
       </c>
     </row>
